--- a/test cases/DienmayXANH-Comment.xlsx
+++ b/test cases/DienmayXANH-Comment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\eclipse-workspace\DienMayXanh\test cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Van Lang University\BÈO MẬN LỘC - Documents\test case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB330B5B-A026-4061-86DF-7E606AF15A24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{0B42F5BB-FBE1-4C2F-9E48-1642FB2AA248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{93C4753A-A6F1-412D-B75B-DC4097C04312}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,6 +118,9 @@
     <t>Module</t>
   </si>
   <si>
+    <t>Bình luận</t>
+  </si>
+  <si>
     <t>Test Designed By</t>
   </si>
   <si>
@@ -307,6 +310,9 @@
     <t>Nhập nội dung bình luận ít hơn 10 ký tự</t>
   </si>
   <si>
+    <t>Test Cases for 'Bình luận' function</t>
+  </si>
+  <si>
     <t>Truy cập</t>
   </si>
   <si>
@@ -335,12 +341,6 @@
   </si>
   <si>
     <t>Nội dung bình luận quá ngắn</t>
-  </si>
-  <si>
-    <t>Test Cases for 'Comment' function</t>
-  </si>
-  <si>
-    <t>Comment</t>
   </si>
 </sst>
 </file>
@@ -1294,6 +1294,27 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1306,15 +1327,6 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1327,18 +1339,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1399,6 +1399,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1408,6 +1417,45 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="42" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1417,15 +1465,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1439,45 +1478,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="42" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1890,20 +1890,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="2" spans="2:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
@@ -1912,12 +1912,12 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
@@ -1958,7 +1958,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
@@ -1980,12 +1980,12 @@
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
     </row>
     <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
@@ -1994,12 +1994,12 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="61"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
@@ -2008,54 +2008,54 @@
       <c r="C14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="63"/>
+      <c r="E14" s="55"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="65"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="65"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="65"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="65"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
     </row>
     <row r="19" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2081,7 +2081,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:I3"/>
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2120,7 +2120,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="76" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="G2" s="78"/>
       <c r="H2" s="78"/>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="80" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="81"/>
       <c r="C3" s="82" t="s">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="D3" s="83"/>
       <c r="E3" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="82"/>
       <c r="G3" s="84"/>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="4" spans="1:9" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="68"/>
       <c r="C4" s="69">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="D4" s="70"/>
       <c r="E4" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="69"/>
       <c r="G4" s="71"/>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="66"/>
       <c r="C7" s="66"/>
@@ -2175,31 +2175,31 @@
     </row>
     <row r="8" spans="1:9" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2207,17 +2207,17 @@
         <v>1</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20">
@@ -2230,17 +2230,17 @@
         <v>2</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20">
@@ -2253,17 +2253,17 @@
         <v>3</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20">
@@ -2276,17 +2276,17 @@
         <v>4</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20">
@@ -2333,7 +2333,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2345,881 +2345,864 @@
     <col min="6" max="6" width="8.33203125" customWidth="1"/>
     <col min="7" max="7" width="31.33203125" style="27" customWidth="1"/>
     <col min="8" max="8" width="19.6640625" customWidth="1"/>
-    <col min="9" max="9" width="22" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="27.33203125" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="102" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
+      <c r="A1" s="100" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
     </row>
     <row r="2" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="107"/>
+      <c r="I2" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="104"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="105" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
+      <c r="A3" s="102" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
     </row>
     <row r="4" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="103">
+      <c r="A4" s="94">
         <v>1</v>
       </c>
-      <c r="B4" s="104" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="100" t="s">
+      <c r="B4" s="101" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="96" t="s">
         <v>52</v>
       </c>
+      <c r="D4" s="98" t="s">
+        <v>53</v>
+      </c>
       <c r="E4" s="92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F4" s="31">
         <v>1</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H4" s="44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I4" s="45"/>
       <c r="J4" s="39"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="103"/>
-      <c r="B5" s="104"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="100"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="92"/>
       <c r="F5" s="28">
         <v>2</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H5" s="30"/>
       <c r="I5" s="46"/>
       <c r="J5" s="36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="103"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="100"/>
+      <c r="A6" s="94"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="98"/>
       <c r="E6" s="92"/>
       <c r="F6" s="28">
         <v>3</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I6" s="46"/>
       <c r="J6" s="36"/>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="103"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="100"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="98"/>
       <c r="E7" s="92"/>
       <c r="F7" s="28">
         <v>4</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I7" s="46"/>
       <c r="J7" s="36"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="103"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="100"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="98"/>
       <c r="E8" s="92"/>
       <c r="F8" s="28">
         <v>5</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="46"/>
       <c r="J8" s="36"/>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="103"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="100"/>
+      <c r="A9" s="94"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="98"/>
       <c r="E9" s="92"/>
       <c r="F9" s="28">
         <v>6</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I9" s="47"/>
       <c r="J9" s="36"/>
     </row>
     <row r="10" spans="1:10" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="103"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="100"/>
+      <c r="A10" s="94"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="98"/>
       <c r="E10" s="92"/>
       <c r="F10" s="28">
         <v>7</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H10" s="33"/>
       <c r="I10" s="48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="103">
+      <c r="A11" s="94">
         <v>2</v>
       </c>
-      <c r="B11" s="108" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="93" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="100" t="s">
+      <c r="B11" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="96" t="s">
         <v>66</v>
       </c>
+      <c r="D11" s="98" t="s">
+        <v>67</v>
+      </c>
       <c r="E11" s="92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F11" s="31">
         <v>1</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="49"/>
       <c r="J11" s="39"/>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="103"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="100"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="98"/>
       <c r="E12" s="92"/>
       <c r="F12" s="28">
         <v>2</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H12" s="30"/>
       <c r="I12" s="46"/>
       <c r="J12" s="36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="103"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="100"/>
+      <c r="A13" s="94"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="98"/>
       <c r="E13" s="92"/>
       <c r="F13" s="28">
         <v>3</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H13" s="30"/>
       <c r="I13" s="46"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="103"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="100"/>
+      <c r="A14" s="94"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="98"/>
       <c r="E14" s="92"/>
       <c r="F14" s="28">
         <v>4</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I14" s="46"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="103"/>
-      <c r="B15" s="109"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="100"/>
+      <c r="A15" s="94"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="98"/>
       <c r="E15" s="92"/>
       <c r="F15" s="28">
         <v>5</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H15" s="30"/>
       <c r="I15" s="46"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="103"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="100"/>
+      <c r="A16" s="94"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="98"/>
       <c r="E16" s="92"/>
       <c r="F16" s="28">
         <v>6</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I16" s="47"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="112"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="111"/>
+      <c r="A17" s="95"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="93"/>
       <c r="F17" s="41">
         <v>7</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H17" s="43"/>
       <c r="I17" s="50" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J17" s="37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="86">
+      <c r="A18" s="89">
         <v>3</v>
       </c>
-      <c r="B18" s="109"/>
-      <c r="C18" s="93" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="100" t="s">
-        <v>66</v>
+      <c r="B18" s="87"/>
+      <c r="C18" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="98" t="s">
+        <v>67</v>
       </c>
       <c r="E18" s="92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F18" s="31">
         <v>1</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H18" s="32"/>
       <c r="I18" s="49"/>
       <c r="J18" s="39"/>
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="87"/>
-      <c r="B19" s="109"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="100"/>
+      <c r="A19" s="90"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="98"/>
       <c r="E19" s="92"/>
       <c r="F19" s="28">
         <v>2</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H19" s="30"/>
       <c r="I19" s="46"/>
       <c r="J19" s="36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="87"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="100"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="98"/>
       <c r="E20" s="92"/>
       <c r="F20" s="28">
         <v>3</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H20" s="30"/>
       <c r="I20" s="46"/>
       <c r="J20" s="36"/>
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="87"/>
-      <c r="B21" s="109"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="100"/>
+      <c r="A21" s="90"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="98"/>
       <c r="E21" s="92"/>
       <c r="F21" s="28">
         <v>4</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I21" s="46"/>
       <c r="J21" s="36"/>
     </row>
     <row r="22" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="87"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="100"/>
+      <c r="A22" s="90"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="98"/>
       <c r="E22" s="92"/>
       <c r="F22" s="28">
         <v>5</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H22" s="30"/>
       <c r="I22" s="46"/>
       <c r="J22" s="36"/>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="87"/>
-      <c r="B23" s="109"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="100"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="98"/>
       <c r="E23" s="92"/>
       <c r="F23" s="28">
         <v>6</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I23" s="47"/>
       <c r="J23" s="36"/>
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="88"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="111"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="93"/>
       <c r="F24" s="41">
         <v>7</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H24" s="43"/>
       <c r="I24" s="50" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J24" s="37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="98">
+      <c r="A25" s="111">
         <v>4</v>
       </c>
-      <c r="B25" s="95" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="93" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="100" t="s">
+      <c r="B25" s="108" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="96" t="s">
         <v>71</v>
       </c>
+      <c r="D25" s="98" t="s">
+        <v>72</v>
+      </c>
       <c r="E25" s="92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25" s="31">
         <v>1</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H25" s="32"/>
       <c r="I25" s="49"/>
       <c r="J25" s="39"/>
     </row>
     <row r="26" spans="1:10" s="1" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="101"/>
+      <c r="A26" s="112"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="99"/>
       <c r="E26" s="92"/>
       <c r="F26" s="28">
         <v>2</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H26" s="30"/>
       <c r="I26" s="46"/>
       <c r="J26" s="36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="1" customFormat="1" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="99"/>
-      <c r="B27" s="96"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="101"/>
+      <c r="A27" s="112"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="99"/>
       <c r="E27" s="92"/>
       <c r="F27" s="28">
         <v>3</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I27" s="46"/>
       <c r="J27" s="36"/>
     </row>
     <row r="28" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="99"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="101"/>
+      <c r="A28" s="112"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="99"/>
       <c r="E28" s="92"/>
       <c r="F28" s="28">
         <v>4</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H28" s="30"/>
       <c r="I28" s="46"/>
       <c r="J28" s="36"/>
     </row>
     <row r="29" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="99"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="101"/>
+      <c r="A29" s="112"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="99"/>
       <c r="E29" s="92"/>
       <c r="F29" s="28">
         <v>5</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="46"/>
       <c r="J29" s="36"/>
     </row>
     <row r="30" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="99"/>
-      <c r="B30" s="96"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="101"/>
+      <c r="A30" s="112"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="99"/>
       <c r="E30" s="92"/>
       <c r="F30" s="28">
         <v>6</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H30" s="40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I30" s="47"/>
       <c r="J30" s="36"/>
     </row>
     <row r="31" spans="1:10" s="1" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="98"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="100"/>
+      <c r="A31" s="111"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="98"/>
       <c r="E31" s="92"/>
       <c r="F31" s="28">
         <v>7</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H31" s="33"/>
       <c r="I31" s="48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J31" s="38" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="1" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="86">
+      <c r="A32" s="89">
         <v>5</v>
       </c>
-      <c r="B32" s="96"/>
-      <c r="C32" s="93" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="89" t="s">
+      <c r="B32" s="109"/>
+      <c r="C32" s="96" t="s">
         <v>74</v>
       </c>
+      <c r="D32" s="105" t="s">
+        <v>75</v>
+      </c>
       <c r="E32" s="92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F32" s="31">
         <v>1</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H32" s="32"/>
       <c r="I32" s="49"/>
       <c r="J32" s="39"/>
     </row>
     <row r="33" spans="1:10" s="1" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="87"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="90"/>
+      <c r="A33" s="90"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="106"/>
       <c r="E33" s="92"/>
       <c r="F33" s="28">
         <v>2</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H33" s="30"/>
       <c r="I33" s="46"/>
       <c r="J33" s="36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="1" customFormat="1" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="87"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="90"/>
+      <c r="A34" s="90"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="106"/>
       <c r="E34" s="92"/>
       <c r="F34" s="28">
         <v>3</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I34" s="46"/>
       <c r="J34" s="36"/>
     </row>
     <row r="35" spans="1:10" s="1" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="87"/>
-      <c r="B35" s="96"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="90"/>
+      <c r="A35" s="90"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="106"/>
       <c r="E35" s="92"/>
       <c r="F35" s="28">
         <v>4</v>
       </c>
       <c r="G35" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H35" s="30"/>
       <c r="I35" s="46"/>
       <c r="J35" s="36"/>
     </row>
     <row r="36" spans="1:10" s="1" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="87"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="90"/>
+      <c r="A36" s="90"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="106"/>
       <c r="E36" s="92"/>
       <c r="F36" s="28">
         <v>5</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H36" s="30"/>
       <c r="I36" s="46"/>
       <c r="J36" s="36"/>
     </row>
     <row r="37" spans="1:10" s="1" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="87"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="90"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="106"/>
       <c r="E37" s="92"/>
       <c r="F37" s="28">
         <v>6</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H37" s="40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I37" s="47"/>
       <c r="J37" s="36"/>
     </row>
     <row r="38" spans="1:10" s="1" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="88"/>
-      <c r="B38" s="97"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="91"/>
+      <c r="A38" s="91"/>
+      <c r="B38" s="110"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="107"/>
       <c r="E38" s="92"/>
       <c r="F38" s="28">
         <v>7</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H38" s="33"/>
       <c r="I38" s="48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J38" s="38" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="1" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="86">
+      <c r="A39" s="89">
         <v>6</v>
       </c>
-      <c r="B39" s="95" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="93" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="89" t="s">
+      <c r="B39" s="108" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="96" t="s">
         <v>77</v>
       </c>
+      <c r="D39" s="105" t="s">
+        <v>78</v>
+      </c>
       <c r="E39" s="92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F39" s="31">
         <v>1</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H39" s="32"/>
       <c r="I39" s="49"/>
       <c r="J39" s="39"/>
     </row>
     <row r="40" spans="1:10" s="1" customFormat="1" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="87"/>
-      <c r="B40" s="96"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="90"/>
+      <c r="A40" s="90"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="106"/>
       <c r="E40" s="92"/>
       <c r="F40" s="28">
         <v>2</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H40" s="30"/>
       <c r="I40" s="46"/>
       <c r="J40" s="36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="1" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="87"/>
-      <c r="B41" s="96"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="90"/>
+      <c r="A41" s="90"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="106"/>
       <c r="E41" s="92"/>
       <c r="F41" s="28">
         <v>3</v>
       </c>
       <c r="G41" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="H41" s="30" t="s">
         <v>79</v>
-      </c>
-      <c r="H41" s="30" t="s">
-        <v>78</v>
       </c>
       <c r="I41" s="46"/>
       <c r="J41" s="36"/>
     </row>
     <row r="42" spans="1:10" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="87"/>
-      <c r="B42" s="96"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="90"/>
+      <c r="A42" s="90"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="97"/>
+      <c r="D42" s="106"/>
       <c r="E42" s="92"/>
       <c r="F42" s="28">
         <v>4</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I42" s="46"/>
       <c r="J42" s="36"/>
     </row>
     <row r="43" spans="1:10" s="1" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="87"/>
-      <c r="B43" s="96"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="90"/>
+      <c r="A43" s="90"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="106"/>
       <c r="E43" s="92"/>
       <c r="F43" s="28">
         <v>5</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H43" s="30"/>
       <c r="I43" s="46"/>
       <c r="J43" s="36"/>
     </row>
     <row r="44" spans="1:10" s="1" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="87"/>
-      <c r="B44" s="96"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="90"/>
+      <c r="A44" s="90"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="106"/>
       <c r="E44" s="92"/>
       <c r="F44" s="28">
         <v>6</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H44" s="40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I44" s="47"/>
       <c r="J44" s="36"/>
     </row>
     <row r="45" spans="1:10" s="1" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="88"/>
-      <c r="B45" s="97"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="91"/>
+      <c r="A45" s="91"/>
+      <c r="B45" s="110"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="107"/>
       <c r="E45" s="92"/>
       <c r="F45" s="113">
         <v>7</v>
       </c>
       <c r="G45" s="114" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H45" s="33"/>
       <c r="I45" s="48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J45" s="38" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B11:B24"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="E11:E17"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="C11:C17"/>
-    <mergeCell ref="D11:D17"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="D18:D24"/>
-    <mergeCell ref="E18:E24"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="D4:D10"/>
-    <mergeCell ref="E4:E10"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="I2:J2"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="A39:A45"/>
     <mergeCell ref="D32:D38"/>
@@ -3234,6 +3217,23 @@
     <mergeCell ref="C25:C31"/>
     <mergeCell ref="D25:D31"/>
     <mergeCell ref="E25:E31"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="D4:D10"/>
+    <mergeCell ref="E4:E10"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B11:B24"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="E11:E17"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="C11:C17"/>
+    <mergeCell ref="D11:D17"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="D18:D24"/>
+    <mergeCell ref="E18:E24"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <hyperlinks>
@@ -3251,12 +3251,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3418,15 +3415,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06066F44-28EF-4989-9E2D-F3C30A4D0D5D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6459A90D-25B3-4765-A81F-CB2B8DBDBF37}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3450,10 +3451,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6459A90D-25B3-4765-A81F-CB2B8DBDBF37}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06066F44-28EF-4989-9E2D-F3C30A4D0D5D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>